--- a/Shiny/data/SI_SteppedField_ScaleAndDataFormat_online.xlsx
+++ b/Shiny/data/SI_SteppedField_ScaleAndDataFormat_online.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JAPicache/Box Sync/JAP_VU/McLean Lab/Manuscripts/201808_Databae_ChemSci/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baileyrose/Documents/GitHub/CCS-Compendium/Shiny/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D81862A-A28F-3C4F-9B1B-84BAF0CB0845}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="tlgBYxlRSv+SlNxNcCPG+/7UXgU6kI3AR0hzjKc55GbKusFUDPy06wHP01emN2Esg9+AieMSDOByLHU0UhYYHA==" workbookSaltValue="PAteBeUYDDmhH2yxrTyKjw==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1A1711-1B65-D34A-8695-D306EC85DA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{750A71D9-210A-A849-89D1-CA956B77BDCB}"/>
+    <workbookView xWindow="1140" yWindow="0" windowWidth="32460" windowHeight="21000" activeTab="1" xr2:uid="{750A71D9-210A-A849-89D1-CA956B77BDCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Stepped Field Ref Stds &amp; Scale" sheetId="1" r:id="rId1"/>
@@ -22,10 +21,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Stepped Field Data Format'!$A$1:$U$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Stepped Field Ref Stds &amp; Scale'!$G$6:$P$6</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -186,7 +194,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,6 +250,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="TimesNewRomanPSMT"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -501,10 +515,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -803,9 +818,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1119,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248AD725-4A5D-464C-AC58-306B68529325}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
@@ -2155,9 +2174,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD75730-B3FB-FE48-AC64-A6034D7EE330}">
   <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="P3" sqref="P3:P600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -2337,8 +2356,8 @@
         <f>IFERROR(STDEV(J3:L3), "")</f>
         <v/>
       </c>
-      <c r="P3" s="65" t="str">
-        <f>IFERROR(O3/N3*100, "")</f>
+      <c r="P3" s="90" t="str">
+        <f>IFERROR(O3/N3, "")</f>
         <v/>
       </c>
       <c r="Q3" s="65" t="str">
@@ -2346,7 +2365,7 @@
         <v/>
       </c>
       <c r="R3" s="65" t="str">
-        <f>IFERROR(N3/G3, "")</f>
+        <f>IFERROR(N3/F3, "")</f>
         <v/>
       </c>
       <c r="S3" s="83"/>
@@ -2378,8 +2397,8 @@
         <f t="shared" ref="O4:O67" si="2">IFERROR(STDEV(J4:L4), "")</f>
         <v/>
       </c>
-      <c r="P4" s="65" t="str">
-        <f t="shared" ref="P4:P67" si="3">IFERROR(O4/N4*100, "")</f>
+      <c r="P4" s="90" t="str">
+        <f t="shared" ref="P4:P67" si="3">IFERROR(O4/N4, "")</f>
         <v/>
       </c>
       <c r="Q4" s="65" t="str">
@@ -2387,7 +2406,7 @@
         <v/>
       </c>
       <c r="R4" s="65" t="str">
-        <f t="shared" ref="R4:R67" si="4">IFERROR(N4/G4, "")</f>
+        <f t="shared" ref="R4:R67" si="4">IFERROR(N4/F4, "")</f>
         <v/>
       </c>
       <c r="S4" s="83"/>
@@ -2419,7 +2438,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P5" s="65" t="str">
+      <c r="P5" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2460,7 +2479,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P6" s="65" t="str">
+      <c r="P6" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2501,7 +2520,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P7" s="65" t="str">
+      <c r="P7" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2542,7 +2561,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P8" s="65" t="str">
+      <c r="P8" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2583,7 +2602,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P9" s="65" t="str">
+      <c r="P9" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2624,7 +2643,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P10" s="65" t="str">
+      <c r="P10" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2665,7 +2684,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P11" s="65" t="str">
+      <c r="P11" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2706,7 +2725,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P12" s="65" t="str">
+      <c r="P12" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2747,7 +2766,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P13" s="65" t="str">
+      <c r="P13" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2788,7 +2807,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P14" s="65" t="str">
+      <c r="P14" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2829,7 +2848,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P15" s="65" t="str">
+      <c r="P15" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2870,7 +2889,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P16" s="65" t="str">
+      <c r="P16" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2911,7 +2930,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P17" s="65" t="str">
+      <c r="P17" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2952,7 +2971,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P18" s="65" t="str">
+      <c r="P18" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2993,7 +3012,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P19" s="65" t="str">
+      <c r="P19" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3034,7 +3053,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P20" s="65" t="str">
+      <c r="P20" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3075,7 +3094,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P21" s="65" t="str">
+      <c r="P21" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3116,7 +3135,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P22" s="65" t="str">
+      <c r="P22" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3157,7 +3176,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P23" s="65" t="str">
+      <c r="P23" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3198,7 +3217,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P24" s="65" t="str">
+      <c r="P24" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3239,7 +3258,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P25" s="65" t="str">
+      <c r="P25" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3280,7 +3299,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P26" s="65" t="str">
+      <c r="P26" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3321,7 +3340,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P27" s="65" t="str">
+      <c r="P27" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3362,7 +3381,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P28" s="65" t="str">
+      <c r="P28" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3403,7 +3422,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P29" s="65" t="str">
+      <c r="P29" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3444,7 +3463,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P30" s="65" t="str">
+      <c r="P30" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3485,7 +3504,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P31" s="65" t="str">
+      <c r="P31" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3526,7 +3545,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P32" s="65" t="str">
+      <c r="P32" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3567,7 +3586,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P33" s="65" t="str">
+      <c r="P33" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3608,7 +3627,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P34" s="65" t="str">
+      <c r="P34" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3649,7 +3668,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P35" s="65" t="str">
+      <c r="P35" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3690,7 +3709,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P36" s="65" t="str">
+      <c r="P36" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3731,7 +3750,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P37" s="65" t="str">
+      <c r="P37" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3772,7 +3791,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P38" s="65" t="str">
+      <c r="P38" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3813,7 +3832,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P39" s="65" t="str">
+      <c r="P39" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3854,7 +3873,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P40" s="65" t="str">
+      <c r="P40" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3895,7 +3914,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P41" s="65" t="str">
+      <c r="P41" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3936,7 +3955,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P42" s="65" t="str">
+      <c r="P42" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3977,7 +3996,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P43" s="65" t="str">
+      <c r="P43" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4018,7 +4037,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P44" s="65" t="str">
+      <c r="P44" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4059,7 +4078,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P45" s="65" t="str">
+      <c r="P45" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4100,7 +4119,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P46" s="65" t="str">
+      <c r="P46" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4141,7 +4160,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P47" s="65" t="str">
+      <c r="P47" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4182,7 +4201,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P48" s="65" t="str">
+      <c r="P48" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4223,7 +4242,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P49" s="65" t="str">
+      <c r="P49" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4264,7 +4283,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P50" s="65" t="str">
+      <c r="P50" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4305,7 +4324,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P51" s="65" t="str">
+      <c r="P51" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4346,7 +4365,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P52" s="65" t="str">
+      <c r="P52" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4387,7 +4406,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P53" s="65" t="str">
+      <c r="P53" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4428,7 +4447,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P54" s="65" t="str">
+      <c r="P54" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4469,7 +4488,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P55" s="65" t="str">
+      <c r="P55" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4510,7 +4529,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P56" s="65" t="str">
+      <c r="P56" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4551,7 +4570,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P57" s="65" t="str">
+      <c r="P57" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4592,7 +4611,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P58" s="65" t="str">
+      <c r="P58" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4633,7 +4652,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P59" s="65" t="str">
+      <c r="P59" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4674,7 +4693,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P60" s="65" t="str">
+      <c r="P60" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4715,7 +4734,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P61" s="65" t="str">
+      <c r="P61" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4756,7 +4775,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P62" s="65" t="str">
+      <c r="P62" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4797,7 +4816,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P63" s="65" t="str">
+      <c r="P63" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4838,7 +4857,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P64" s="65" t="str">
+      <c r="P64" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4879,7 +4898,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P65" s="65" t="str">
+      <c r="P65" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4920,7 +4939,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P66" s="65" t="str">
+      <c r="P66" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4961,7 +4980,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P67" s="65" t="str">
+      <c r="P67" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5002,8 +5021,8 @@
         <f t="shared" ref="O68:O131" si="7">IFERROR(STDEV(J68:L68), "")</f>
         <v/>
       </c>
-      <c r="P68" s="65" t="str">
-        <f t="shared" ref="P68:P131" si="8">IFERROR(O68/N68*100, "")</f>
+      <c r="P68" s="90" t="str">
+        <f t="shared" ref="P68:P131" si="8">IFERROR(O68/N68, "")</f>
         <v/>
       </c>
       <c r="Q68" s="65" t="str">
@@ -5011,7 +5030,7 @@
         <v/>
       </c>
       <c r="R68" s="65" t="str">
-        <f t="shared" ref="R68:R131" si="9">IFERROR(N68/G68, "")</f>
+        <f t="shared" ref="R68:R131" si="9">IFERROR(N68/F68, "")</f>
         <v/>
       </c>
       <c r="S68" s="83"/>
@@ -5043,7 +5062,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P69" s="65" t="str">
+      <c r="P69" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5084,7 +5103,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P70" s="65" t="str">
+      <c r="P70" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5125,7 +5144,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P71" s="65" t="str">
+      <c r="P71" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5166,7 +5185,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P72" s="65" t="str">
+      <c r="P72" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5207,7 +5226,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P73" s="65" t="str">
+      <c r="P73" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5248,7 +5267,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P74" s="65" t="str">
+      <c r="P74" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5289,7 +5308,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P75" s="65" t="str">
+      <c r="P75" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5330,7 +5349,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P76" s="65" t="str">
+      <c r="P76" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5371,7 +5390,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P77" s="65" t="str">
+      <c r="P77" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5412,7 +5431,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P78" s="65" t="str">
+      <c r="P78" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5453,7 +5472,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P79" s="65" t="str">
+      <c r="P79" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5494,7 +5513,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P80" s="65" t="str">
+      <c r="P80" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5535,7 +5554,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P81" s="65" t="str">
+      <c r="P81" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5576,7 +5595,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P82" s="65" t="str">
+      <c r="P82" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5617,7 +5636,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P83" s="65" t="str">
+      <c r="P83" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5658,7 +5677,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P84" s="65" t="str">
+      <c r="P84" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5699,7 +5718,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P85" s="65" t="str">
+      <c r="P85" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5740,7 +5759,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P86" s="65" t="str">
+      <c r="P86" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5781,7 +5800,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P87" s="65" t="str">
+      <c r="P87" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5822,7 +5841,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P88" s="65" t="str">
+      <c r="P88" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5863,7 +5882,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P89" s="65" t="str">
+      <c r="P89" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5904,7 +5923,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P90" s="65" t="str">
+      <c r="P90" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5945,7 +5964,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P91" s="65" t="str">
+      <c r="P91" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -5986,7 +6005,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P92" s="65" t="str">
+      <c r="P92" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6027,7 +6046,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P93" s="65" t="str">
+      <c r="P93" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6068,7 +6087,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P94" s="65" t="str">
+      <c r="P94" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6109,7 +6128,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P95" s="65" t="str">
+      <c r="P95" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6150,7 +6169,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P96" s="65" t="str">
+      <c r="P96" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6191,7 +6210,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P97" s="65" t="str">
+      <c r="P97" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6232,7 +6251,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P98" s="65" t="str">
+      <c r="P98" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6273,7 +6292,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P99" s="65" t="str">
+      <c r="P99" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6314,7 +6333,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P100" s="65" t="str">
+      <c r="P100" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6355,7 +6374,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P101" s="65" t="str">
+      <c r="P101" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6396,7 +6415,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P102" s="65" t="str">
+      <c r="P102" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6437,7 +6456,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P103" s="65" t="str">
+      <c r="P103" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6478,7 +6497,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P104" s="65" t="str">
+      <c r="P104" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6519,7 +6538,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P105" s="65" t="str">
+      <c r="P105" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6560,7 +6579,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P106" s="65" t="str">
+      <c r="P106" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6601,7 +6620,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P107" s="65" t="str">
+      <c r="P107" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6642,7 +6661,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P108" s="65" t="str">
+      <c r="P108" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6683,7 +6702,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P109" s="65" t="str">
+      <c r="P109" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6724,7 +6743,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P110" s="65" t="str">
+      <c r="P110" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6765,7 +6784,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P111" s="65" t="str">
+      <c r="P111" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6806,7 +6825,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P112" s="65" t="str">
+      <c r="P112" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6847,7 +6866,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P113" s="65" t="str">
+      <c r="P113" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6888,7 +6907,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P114" s="65" t="str">
+      <c r="P114" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6929,7 +6948,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P115" s="65" t="str">
+      <c r="P115" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6970,7 +6989,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P116" s="65" t="str">
+      <c r="P116" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7011,7 +7030,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P117" s="65" t="str">
+      <c r="P117" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7052,7 +7071,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P118" s="65" t="str">
+      <c r="P118" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7093,7 +7112,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P119" s="65" t="str">
+      <c r="P119" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7134,7 +7153,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P120" s="65" t="str">
+      <c r="P120" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7175,7 +7194,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P121" s="65" t="str">
+      <c r="P121" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7216,7 +7235,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P122" s="65" t="str">
+      <c r="P122" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7257,7 +7276,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P123" s="65" t="str">
+      <c r="P123" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7298,7 +7317,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P124" s="65" t="str">
+      <c r="P124" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7339,7 +7358,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P125" s="65" t="str">
+      <c r="P125" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7380,7 +7399,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P126" s="65" t="str">
+      <c r="P126" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7421,7 +7440,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P127" s="65" t="str">
+      <c r="P127" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7462,7 +7481,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P128" s="65" t="str">
+      <c r="P128" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7503,7 +7522,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P129" s="65" t="str">
+      <c r="P129" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7544,7 +7563,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P130" s="65" t="str">
+      <c r="P130" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7585,7 +7604,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P131" s="65" t="str">
+      <c r="P131" s="90" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7626,8 +7645,8 @@
         <f t="shared" ref="O132:O195" si="12">IFERROR(STDEV(J132:L132), "")</f>
         <v/>
       </c>
-      <c r="P132" s="65" t="str">
-        <f t="shared" ref="P132:P195" si="13">IFERROR(O132/N132*100, "")</f>
+      <c r="P132" s="90" t="str">
+        <f t="shared" ref="P132:P195" si="13">IFERROR(O132/N132, "")</f>
         <v/>
       </c>
       <c r="Q132" s="65" t="str">
@@ -7635,7 +7654,7 @@
         <v/>
       </c>
       <c r="R132" s="65" t="str">
-        <f t="shared" ref="R132:R195" si="14">IFERROR(N132/G132, "")</f>
+        <f t="shared" ref="R132:R195" si="14">IFERROR(N132/F132, "")</f>
         <v/>
       </c>
       <c r="S132" s="83"/>
@@ -7667,7 +7686,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P133" s="65" t="str">
+      <c r="P133" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -7708,7 +7727,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P134" s="65" t="str">
+      <c r="P134" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -7749,7 +7768,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P135" s="65" t="str">
+      <c r="P135" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -7790,7 +7809,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P136" s="65" t="str">
+      <c r="P136" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -7831,7 +7850,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P137" s="65" t="str">
+      <c r="P137" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -7872,7 +7891,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P138" s="65" t="str">
+      <c r="P138" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -7913,7 +7932,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P139" s="65" t="str">
+      <c r="P139" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -7954,7 +7973,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P140" s="65" t="str">
+      <c r="P140" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -7995,7 +8014,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P141" s="65" t="str">
+      <c r="P141" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8036,7 +8055,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P142" s="65" t="str">
+      <c r="P142" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8077,7 +8096,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P143" s="65" t="str">
+      <c r="P143" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8118,7 +8137,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P144" s="65" t="str">
+      <c r="P144" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8159,7 +8178,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P145" s="65" t="str">
+      <c r="P145" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8200,7 +8219,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P146" s="65" t="str">
+      <c r="P146" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8241,7 +8260,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P147" s="65" t="str">
+      <c r="P147" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8282,7 +8301,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P148" s="65" t="str">
+      <c r="P148" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8323,7 +8342,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P149" s="65" t="str">
+      <c r="P149" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8364,7 +8383,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P150" s="65" t="str">
+      <c r="P150" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8405,7 +8424,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P151" s="65" t="str">
+      <c r="P151" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8446,7 +8465,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P152" s="65" t="str">
+      <c r="P152" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8487,7 +8506,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P153" s="65" t="str">
+      <c r="P153" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8528,7 +8547,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P154" s="65" t="str">
+      <c r="P154" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8569,7 +8588,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P155" s="65" t="str">
+      <c r="P155" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8610,7 +8629,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P156" s="65" t="str">
+      <c r="P156" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8651,7 +8670,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P157" s="65" t="str">
+      <c r="P157" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8692,7 +8711,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P158" s="65" t="str">
+      <c r="P158" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8733,7 +8752,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P159" s="65" t="str">
+      <c r="P159" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8774,7 +8793,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P160" s="65" t="str">
+      <c r="P160" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8815,7 +8834,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P161" s="65" t="str">
+      <c r="P161" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8856,7 +8875,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P162" s="65" t="str">
+      <c r="P162" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8897,7 +8916,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P163" s="65" t="str">
+      <c r="P163" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8938,7 +8957,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P164" s="65" t="str">
+      <c r="P164" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -8979,7 +8998,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P165" s="65" t="str">
+      <c r="P165" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9020,7 +9039,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P166" s="65" t="str">
+      <c r="P166" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9061,7 +9080,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P167" s="65" t="str">
+      <c r="P167" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9102,7 +9121,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P168" s="65" t="str">
+      <c r="P168" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9143,7 +9162,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P169" s="65" t="str">
+      <c r="P169" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9184,7 +9203,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P170" s="65" t="str">
+      <c r="P170" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9225,7 +9244,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P171" s="65" t="str">
+      <c r="P171" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9266,7 +9285,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P172" s="65" t="str">
+      <c r="P172" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9307,7 +9326,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P173" s="65" t="str">
+      <c r="P173" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9348,7 +9367,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P174" s="65" t="str">
+      <c r="P174" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9389,7 +9408,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P175" s="65" t="str">
+      <c r="P175" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9430,7 +9449,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P176" s="65" t="str">
+      <c r="P176" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9471,7 +9490,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P177" s="65" t="str">
+      <c r="P177" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9512,7 +9531,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P178" s="65" t="str">
+      <c r="P178" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9553,7 +9572,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P179" s="65" t="str">
+      <c r="P179" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9594,7 +9613,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P180" s="65" t="str">
+      <c r="P180" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9635,7 +9654,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P181" s="65" t="str">
+      <c r="P181" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9676,7 +9695,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P182" s="65" t="str">
+      <c r="P182" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9717,7 +9736,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P183" s="65" t="str">
+      <c r="P183" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9758,7 +9777,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P184" s="65" t="str">
+      <c r="P184" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9799,7 +9818,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P185" s="65" t="str">
+      <c r="P185" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9840,7 +9859,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P186" s="65" t="str">
+      <c r="P186" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9881,7 +9900,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P187" s="65" t="str">
+      <c r="P187" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9922,7 +9941,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P188" s="65" t="str">
+      <c r="P188" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9963,7 +9982,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P189" s="65" t="str">
+      <c r="P189" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -10004,7 +10023,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P190" s="65" t="str">
+      <c r="P190" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -10045,7 +10064,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P191" s="65" t="str">
+      <c r="P191" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -10086,7 +10105,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P192" s="65" t="str">
+      <c r="P192" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -10127,7 +10146,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P193" s="65" t="str">
+      <c r="P193" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -10168,7 +10187,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P194" s="65" t="str">
+      <c r="P194" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -10209,7 +10228,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P195" s="65" t="str">
+      <c r="P195" s="90" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -10250,8 +10269,8 @@
         <f t="shared" ref="O196:O259" si="17">IFERROR(STDEV(J196:L196), "")</f>
         <v/>
       </c>
-      <c r="P196" s="65" t="str">
-        <f t="shared" ref="P196:P259" si="18">IFERROR(O196/N196*100, "")</f>
+      <c r="P196" s="90" t="str">
+        <f t="shared" ref="P196:P259" si="18">IFERROR(O196/N196, "")</f>
         <v/>
       </c>
       <c r="Q196" s="65" t="str">
@@ -10259,7 +10278,7 @@
         <v/>
       </c>
       <c r="R196" s="65" t="str">
-        <f t="shared" ref="R196:R259" si="19">IFERROR(N196/G196, "")</f>
+        <f t="shared" ref="R196:R259" si="19">IFERROR(N196/F196, "")</f>
         <v/>
       </c>
       <c r="S196" s="83"/>
@@ -10291,7 +10310,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P197" s="65" t="str">
+      <c r="P197" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -10332,7 +10351,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P198" s="65" t="str">
+      <c r="P198" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -10373,7 +10392,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P199" s="65" t="str">
+      <c r="P199" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -10414,7 +10433,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P200" s="65" t="str">
+      <c r="P200" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -10455,7 +10474,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P201" s="65" t="str">
+      <c r="P201" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -10496,7 +10515,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P202" s="65" t="str">
+      <c r="P202" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -10537,7 +10556,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P203" s="65" t="str">
+      <c r="P203" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -10578,7 +10597,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P204" s="65" t="str">
+      <c r="P204" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -10619,7 +10638,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P205" s="65" t="str">
+      <c r="P205" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -10660,7 +10679,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P206" s="65" t="str">
+      <c r="P206" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -10701,7 +10720,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P207" s="65" t="str">
+      <c r="P207" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -10742,7 +10761,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P208" s="65" t="str">
+      <c r="P208" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -10783,7 +10802,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P209" s="65" t="str">
+      <c r="P209" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -10824,7 +10843,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P210" s="65" t="str">
+      <c r="P210" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -10865,7 +10884,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P211" s="65" t="str">
+      <c r="P211" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -10906,7 +10925,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P212" s="65" t="str">
+      <c r="P212" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -10947,7 +10966,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P213" s="65" t="str">
+      <c r="P213" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -10988,7 +11007,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P214" s="65" t="str">
+      <c r="P214" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11029,7 +11048,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P215" s="65" t="str">
+      <c r="P215" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11070,7 +11089,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P216" s="65" t="str">
+      <c r="P216" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11111,7 +11130,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P217" s="65" t="str">
+      <c r="P217" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11152,7 +11171,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P218" s="65" t="str">
+      <c r="P218" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11193,7 +11212,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P219" s="65" t="str">
+      <c r="P219" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11234,7 +11253,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P220" s="65" t="str">
+      <c r="P220" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11275,7 +11294,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P221" s="65" t="str">
+      <c r="P221" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11316,7 +11335,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P222" s="65" t="str">
+      <c r="P222" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11357,7 +11376,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P223" s="65" t="str">
+      <c r="P223" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11398,7 +11417,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P224" s="65" t="str">
+      <c r="P224" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11439,7 +11458,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P225" s="65" t="str">
+      <c r="P225" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11480,7 +11499,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P226" s="65" t="str">
+      <c r="P226" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11521,7 +11540,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P227" s="65" t="str">
+      <c r="P227" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11562,7 +11581,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P228" s="65" t="str">
+      <c r="P228" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11603,7 +11622,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P229" s="65" t="str">
+      <c r="P229" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11644,7 +11663,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P230" s="65" t="str">
+      <c r="P230" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11685,7 +11704,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P231" s="65" t="str">
+      <c r="P231" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11726,7 +11745,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P232" s="65" t="str">
+      <c r="P232" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11767,7 +11786,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P233" s="65" t="str">
+      <c r="P233" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11808,7 +11827,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P234" s="65" t="str">
+      <c r="P234" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11849,7 +11868,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P235" s="65" t="str">
+      <c r="P235" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11890,7 +11909,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P236" s="65" t="str">
+      <c r="P236" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11931,7 +11950,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P237" s="65" t="str">
+      <c r="P237" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -11972,7 +11991,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P238" s="65" t="str">
+      <c r="P238" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12013,7 +12032,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P239" s="65" t="str">
+      <c r="P239" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12054,7 +12073,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P240" s="65" t="str">
+      <c r="P240" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12095,7 +12114,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P241" s="65" t="str">
+      <c r="P241" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12136,7 +12155,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P242" s="65" t="str">
+      <c r="P242" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12177,7 +12196,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P243" s="65" t="str">
+      <c r="P243" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12218,7 +12237,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P244" s="65" t="str">
+      <c r="P244" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12259,7 +12278,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P245" s="65" t="str">
+      <c r="P245" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12300,7 +12319,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P246" s="65" t="str">
+      <c r="P246" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12341,7 +12360,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P247" s="65" t="str">
+      <c r="P247" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12382,7 +12401,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P248" s="65" t="str">
+      <c r="P248" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12423,7 +12442,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P249" s="65" t="str">
+      <c r="P249" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12464,7 +12483,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P250" s="65" t="str">
+      <c r="P250" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12505,7 +12524,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P251" s="65" t="str">
+      <c r="P251" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12546,7 +12565,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P252" s="65" t="str">
+      <c r="P252" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12587,7 +12606,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P253" s="65" t="str">
+      <c r="P253" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12628,7 +12647,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P254" s="65" t="str">
+      <c r="P254" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12669,7 +12688,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P255" s="65" t="str">
+      <c r="P255" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12710,7 +12729,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P256" s="65" t="str">
+      <c r="P256" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12751,7 +12770,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P257" s="65" t="str">
+      <c r="P257" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12792,7 +12811,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P258" s="65" t="str">
+      <c r="P258" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12833,7 +12852,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P259" s="65" t="str">
+      <c r="P259" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -12874,8 +12893,8 @@
         <f t="shared" ref="O260:O323" si="22">IFERROR(STDEV(J260:L260), "")</f>
         <v/>
       </c>
-      <c r="P260" s="65" t="str">
-        <f t="shared" ref="P260:P323" si="23">IFERROR(O260/N260*100, "")</f>
+      <c r="P260" s="90" t="str">
+        <f t="shared" ref="P260:P323" si="23">IFERROR(O260/N260, "")</f>
         <v/>
       </c>
       <c r="Q260" s="65" t="str">
@@ -12883,7 +12902,7 @@
         <v/>
       </c>
       <c r="R260" s="65" t="str">
-        <f t="shared" ref="R260:R323" si="24">IFERROR(N260/G260, "")</f>
+        <f t="shared" ref="R260:R323" si="24">IFERROR(N260/F260, "")</f>
         <v/>
       </c>
       <c r="S260" s="83"/>
@@ -12915,7 +12934,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P261" s="65" t="str">
+      <c r="P261" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -12956,7 +12975,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P262" s="65" t="str">
+      <c r="P262" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -12997,7 +13016,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P263" s="65" t="str">
+      <c r="P263" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13038,7 +13057,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P264" s="65" t="str">
+      <c r="P264" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13079,7 +13098,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P265" s="65" t="str">
+      <c r="P265" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13120,7 +13139,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P266" s="65" t="str">
+      <c r="P266" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13161,7 +13180,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P267" s="65" t="str">
+      <c r="P267" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13202,7 +13221,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P268" s="65" t="str">
+      <c r="P268" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13243,7 +13262,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P269" s="65" t="str">
+      <c r="P269" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13284,7 +13303,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P270" s="65" t="str">
+      <c r="P270" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13325,7 +13344,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P271" s="65" t="str">
+      <c r="P271" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13366,7 +13385,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P272" s="65" t="str">
+      <c r="P272" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13407,7 +13426,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P273" s="65" t="str">
+      <c r="P273" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13448,7 +13467,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P274" s="65" t="str">
+      <c r="P274" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13489,7 +13508,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P275" s="65" t="str">
+      <c r="P275" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13530,7 +13549,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P276" s="65" t="str">
+      <c r="P276" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13571,7 +13590,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P277" s="65" t="str">
+      <c r="P277" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13612,7 +13631,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P278" s="65" t="str">
+      <c r="P278" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13653,7 +13672,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P279" s="65" t="str">
+      <c r="P279" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13694,7 +13713,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P280" s="65" t="str">
+      <c r="P280" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13735,7 +13754,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P281" s="65" t="str">
+      <c r="P281" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13776,7 +13795,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P282" s="65" t="str">
+      <c r="P282" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13817,7 +13836,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P283" s="65" t="str">
+      <c r="P283" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13858,7 +13877,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P284" s="65" t="str">
+      <c r="P284" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13899,7 +13918,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P285" s="65" t="str">
+      <c r="P285" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13940,7 +13959,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P286" s="65" t="str">
+      <c r="P286" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -13981,7 +14000,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P287" s="65" t="str">
+      <c r="P287" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14022,7 +14041,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P288" s="65" t="str">
+      <c r="P288" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14063,7 +14082,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P289" s="65" t="str">
+      <c r="P289" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14104,7 +14123,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P290" s="65" t="str">
+      <c r="P290" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14145,7 +14164,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P291" s="65" t="str">
+      <c r="P291" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14186,7 +14205,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P292" s="65" t="str">
+      <c r="P292" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14227,7 +14246,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P293" s="65" t="str">
+      <c r="P293" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14268,7 +14287,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P294" s="65" t="str">
+      <c r="P294" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14309,7 +14328,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P295" s="65" t="str">
+      <c r="P295" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14350,7 +14369,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P296" s="65" t="str">
+      <c r="P296" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14391,7 +14410,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P297" s="65" t="str">
+      <c r="P297" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14432,7 +14451,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P298" s="65" t="str">
+      <c r="P298" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14473,7 +14492,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P299" s="65" t="str">
+      <c r="P299" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14514,7 +14533,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P300" s="65" t="str">
+      <c r="P300" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14555,7 +14574,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P301" s="65" t="str">
+      <c r="P301" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14596,7 +14615,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P302" s="65" t="str">
+      <c r="P302" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14637,7 +14656,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P303" s="65" t="str">
+      <c r="P303" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14678,7 +14697,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P304" s="65" t="str">
+      <c r="P304" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14719,7 +14738,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P305" s="65" t="str">
+      <c r="P305" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14760,7 +14779,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P306" s="65" t="str">
+      <c r="P306" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14801,7 +14820,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P307" s="65" t="str">
+      <c r="P307" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14842,7 +14861,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P308" s="65" t="str">
+      <c r="P308" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14883,7 +14902,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P309" s="65" t="str">
+      <c r="P309" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14924,7 +14943,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P310" s="65" t="str">
+      <c r="P310" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -14965,7 +14984,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P311" s="65" t="str">
+      <c r="P311" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -15006,7 +15025,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P312" s="65" t="str">
+      <c r="P312" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -15047,7 +15066,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P313" s="65" t="str">
+      <c r="P313" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -15088,7 +15107,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P314" s="65" t="str">
+      <c r="P314" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -15129,7 +15148,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P315" s="65" t="str">
+      <c r="P315" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -15170,7 +15189,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P316" s="65" t="str">
+      <c r="P316" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -15211,7 +15230,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P317" s="65" t="str">
+      <c r="P317" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -15252,7 +15271,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P318" s="65" t="str">
+      <c r="P318" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -15293,7 +15312,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P319" s="65" t="str">
+      <c r="P319" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -15334,7 +15353,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P320" s="65" t="str">
+      <c r="P320" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -15375,7 +15394,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P321" s="65" t="str">
+      <c r="P321" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -15416,7 +15435,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P322" s="65" t="str">
+      <c r="P322" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -15457,7 +15476,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P323" s="65" t="str">
+      <c r="P323" s="90" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -15498,8 +15517,8 @@
         <f t="shared" ref="O324:O387" si="27">IFERROR(STDEV(J324:L324), "")</f>
         <v/>
       </c>
-      <c r="P324" s="65" t="str">
-        <f t="shared" ref="P324:P387" si="28">IFERROR(O324/N324*100, "")</f>
+      <c r="P324" s="90" t="str">
+        <f t="shared" ref="P324:P387" si="28">IFERROR(O324/N324, "")</f>
         <v/>
       </c>
       <c r="Q324" s="65" t="str">
@@ -15507,7 +15526,7 @@
         <v/>
       </c>
       <c r="R324" s="65" t="str">
-        <f t="shared" ref="R324:R387" si="29">IFERROR(N324/G324, "")</f>
+        <f t="shared" ref="R324:R387" si="29">IFERROR(N324/F324, "")</f>
         <v/>
       </c>
       <c r="S324" s="83"/>
@@ -15539,7 +15558,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P325" s="65" t="str">
+      <c r="P325" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -15580,7 +15599,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P326" s="65" t="str">
+      <c r="P326" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -15621,7 +15640,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P327" s="65" t="str">
+      <c r="P327" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -15662,7 +15681,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P328" s="65" t="str">
+      <c r="P328" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -15703,7 +15722,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P329" s="65" t="str">
+      <c r="P329" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -15744,7 +15763,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P330" s="65" t="str">
+      <c r="P330" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -15785,7 +15804,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P331" s="65" t="str">
+      <c r="P331" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -15826,7 +15845,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P332" s="65" t="str">
+      <c r="P332" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -15867,7 +15886,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P333" s="65" t="str">
+      <c r="P333" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -15908,7 +15927,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P334" s="65" t="str">
+      <c r="P334" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -15949,7 +15968,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P335" s="65" t="str">
+      <c r="P335" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -15990,7 +16009,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P336" s="65" t="str">
+      <c r="P336" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16031,7 +16050,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P337" s="65" t="str">
+      <c r="P337" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16072,7 +16091,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P338" s="65" t="str">
+      <c r="P338" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16113,7 +16132,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P339" s="65" t="str">
+      <c r="P339" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16154,7 +16173,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P340" s="65" t="str">
+      <c r="P340" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16195,7 +16214,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P341" s="65" t="str">
+      <c r="P341" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16236,7 +16255,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P342" s="65" t="str">
+      <c r="P342" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16277,7 +16296,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P343" s="65" t="str">
+      <c r="P343" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16318,7 +16337,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P344" s="65" t="str">
+      <c r="P344" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16359,7 +16378,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P345" s="65" t="str">
+      <c r="P345" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16400,7 +16419,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P346" s="65" t="str">
+      <c r="P346" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16441,7 +16460,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P347" s="65" t="str">
+      <c r="P347" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16482,7 +16501,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P348" s="65" t="str">
+      <c r="P348" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16523,7 +16542,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P349" s="65" t="str">
+      <c r="P349" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16564,7 +16583,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P350" s="65" t="str">
+      <c r="P350" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16605,7 +16624,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P351" s="65" t="str">
+      <c r="P351" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16646,7 +16665,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P352" s="65" t="str">
+      <c r="P352" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16687,7 +16706,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P353" s="65" t="str">
+      <c r="P353" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16728,7 +16747,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P354" s="65" t="str">
+      <c r="P354" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16769,7 +16788,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P355" s="65" t="str">
+      <c r="P355" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16810,7 +16829,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P356" s="65" t="str">
+      <c r="P356" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16851,7 +16870,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P357" s="65" t="str">
+      <c r="P357" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16892,7 +16911,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P358" s="65" t="str">
+      <c r="P358" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16933,7 +16952,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P359" s="65" t="str">
+      <c r="P359" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -16974,7 +16993,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P360" s="65" t="str">
+      <c r="P360" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17015,7 +17034,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P361" s="65" t="str">
+      <c r="P361" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17056,7 +17075,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P362" s="65" t="str">
+      <c r="P362" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17097,7 +17116,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P363" s="65" t="str">
+      <c r="P363" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17138,7 +17157,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P364" s="65" t="str">
+      <c r="P364" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17179,7 +17198,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P365" s="65" t="str">
+      <c r="P365" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17220,7 +17239,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P366" s="65" t="str">
+      <c r="P366" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17261,7 +17280,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P367" s="65" t="str">
+      <c r="P367" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17302,7 +17321,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P368" s="65" t="str">
+      <c r="P368" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17343,7 +17362,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P369" s="65" t="str">
+      <c r="P369" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17384,7 +17403,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P370" s="65" t="str">
+      <c r="P370" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17425,7 +17444,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P371" s="65" t="str">
+      <c r="P371" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17466,7 +17485,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P372" s="65" t="str">
+      <c r="P372" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17507,7 +17526,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P373" s="65" t="str">
+      <c r="P373" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17548,7 +17567,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P374" s="65" t="str">
+      <c r="P374" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17589,7 +17608,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P375" s="65" t="str">
+      <c r="P375" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17630,7 +17649,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P376" s="65" t="str">
+      <c r="P376" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17671,7 +17690,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P377" s="65" t="str">
+      <c r="P377" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17712,7 +17731,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P378" s="65" t="str">
+      <c r="P378" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17753,7 +17772,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P379" s="65" t="str">
+      <c r="P379" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17794,7 +17813,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P380" s="65" t="str">
+      <c r="P380" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17835,7 +17854,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P381" s="65" t="str">
+      <c r="P381" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17876,7 +17895,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P382" s="65" t="str">
+      <c r="P382" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17917,7 +17936,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P383" s="65" t="str">
+      <c r="P383" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17958,7 +17977,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P384" s="65" t="str">
+      <c r="P384" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17999,7 +18018,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P385" s="65" t="str">
+      <c r="P385" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -18040,7 +18059,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P386" s="65" t="str">
+      <c r="P386" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -18081,7 +18100,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P387" s="65" t="str">
+      <c r="P387" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -18122,8 +18141,8 @@
         <f t="shared" ref="O388:O451" si="32">IFERROR(STDEV(J388:L388), "")</f>
         <v/>
       </c>
-      <c r="P388" s="65" t="str">
-        <f t="shared" ref="P388:P451" si="33">IFERROR(O388/N388*100, "")</f>
+      <c r="P388" s="90" t="str">
+        <f t="shared" ref="P388:P451" si="33">IFERROR(O388/N388, "")</f>
         <v/>
       </c>
       <c r="Q388" s="65" t="str">
@@ -18131,7 +18150,7 @@
         <v/>
       </c>
       <c r="R388" s="65" t="str">
-        <f t="shared" ref="R388:R451" si="34">IFERROR(N388/G388, "")</f>
+        <f t="shared" ref="R388:R451" si="34">IFERROR(N388/F388, "")</f>
         <v/>
       </c>
       <c r="S388" s="83"/>
@@ -18163,7 +18182,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P389" s="65" t="str">
+      <c r="P389" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -18204,7 +18223,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P390" s="65" t="str">
+      <c r="P390" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -18245,7 +18264,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P391" s="65" t="str">
+      <c r="P391" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -18286,7 +18305,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P392" s="65" t="str">
+      <c r="P392" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -18327,7 +18346,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P393" s="65" t="str">
+      <c r="P393" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -18368,7 +18387,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P394" s="65" t="str">
+      <c r="P394" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -18409,7 +18428,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P395" s="65" t="str">
+      <c r="P395" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -18450,7 +18469,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P396" s="65" t="str">
+      <c r="P396" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -18491,7 +18510,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P397" s="65" t="str">
+      <c r="P397" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -18532,7 +18551,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P398" s="65" t="str">
+      <c r="P398" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -18573,7 +18592,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P399" s="65" t="str">
+      <c r="P399" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -18614,7 +18633,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P400" s="65" t="str">
+      <c r="P400" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -18655,7 +18674,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P401" s="65" t="str">
+      <c r="P401" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -18696,7 +18715,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P402" s="65" t="str">
+      <c r="P402" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -18737,7 +18756,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P403" s="65" t="str">
+      <c r="P403" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -18778,7 +18797,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P404" s="65" t="str">
+      <c r="P404" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -18819,7 +18838,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P405" s="65" t="str">
+      <c r="P405" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -18860,7 +18879,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P406" s="65" t="str">
+      <c r="P406" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -18901,7 +18920,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P407" s="65" t="str">
+      <c r="P407" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -18942,7 +18961,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P408" s="65" t="str">
+      <c r="P408" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -18983,7 +19002,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P409" s="65" t="str">
+      <c r="P409" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19024,7 +19043,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P410" s="65" t="str">
+      <c r="P410" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19065,7 +19084,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P411" s="65" t="str">
+      <c r="P411" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19106,7 +19125,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P412" s="65" t="str">
+      <c r="P412" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19147,7 +19166,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P413" s="65" t="str">
+      <c r="P413" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19188,7 +19207,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P414" s="65" t="str">
+      <c r="P414" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19229,7 +19248,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P415" s="65" t="str">
+      <c r="P415" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19270,7 +19289,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P416" s="65" t="str">
+      <c r="P416" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19311,7 +19330,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P417" s="65" t="str">
+      <c r="P417" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19352,7 +19371,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P418" s="65" t="str">
+      <c r="P418" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19393,7 +19412,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P419" s="65" t="str">
+      <c r="P419" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19434,7 +19453,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P420" s="65" t="str">
+      <c r="P420" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19475,7 +19494,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P421" s="65" t="str">
+      <c r="P421" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19516,7 +19535,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P422" s="65" t="str">
+      <c r="P422" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19557,7 +19576,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P423" s="65" t="str">
+      <c r="P423" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19598,7 +19617,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P424" s="65" t="str">
+      <c r="P424" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19639,7 +19658,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P425" s="65" t="str">
+      <c r="P425" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19680,7 +19699,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P426" s="65" t="str">
+      <c r="P426" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19721,7 +19740,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P427" s="65" t="str">
+      <c r="P427" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19762,7 +19781,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P428" s="65" t="str">
+      <c r="P428" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19803,7 +19822,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P429" s="65" t="str">
+      <c r="P429" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19844,7 +19863,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P430" s="65" t="str">
+      <c r="P430" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19885,7 +19904,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P431" s="65" t="str">
+      <c r="P431" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19926,7 +19945,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P432" s="65" t="str">
+      <c r="P432" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -19967,7 +19986,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P433" s="65" t="str">
+      <c r="P433" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -20008,7 +20027,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P434" s="65" t="str">
+      <c r="P434" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -20049,7 +20068,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P435" s="65" t="str">
+      <c r="P435" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -20090,7 +20109,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P436" s="65" t="str">
+      <c r="P436" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -20131,7 +20150,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P437" s="65" t="str">
+      <c r="P437" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -20172,7 +20191,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P438" s="65" t="str">
+      <c r="P438" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -20213,7 +20232,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P439" s="65" t="str">
+      <c r="P439" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -20254,7 +20273,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P440" s="65" t="str">
+      <c r="P440" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -20295,7 +20314,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P441" s="65" t="str">
+      <c r="P441" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -20336,7 +20355,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P442" s="65" t="str">
+      <c r="P442" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -20377,7 +20396,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P443" s="65" t="str">
+      <c r="P443" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -20418,7 +20437,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P444" s="65" t="str">
+      <c r="P444" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -20459,7 +20478,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P445" s="65" t="str">
+      <c r="P445" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -20500,7 +20519,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P446" s="65" t="str">
+      <c r="P446" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -20541,7 +20560,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P447" s="65" t="str">
+      <c r="P447" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -20582,7 +20601,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P448" s="65" t="str">
+      <c r="P448" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -20623,7 +20642,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P449" s="65" t="str">
+      <c r="P449" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -20664,7 +20683,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P450" s="65" t="str">
+      <c r="P450" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -20705,7 +20724,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P451" s="65" t="str">
+      <c r="P451" s="90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -20746,8 +20765,8 @@
         <f t="shared" ref="O452:O515" si="37">IFERROR(STDEV(J452:L452), "")</f>
         <v/>
       </c>
-      <c r="P452" s="65" t="str">
-        <f t="shared" ref="P452:P515" si="38">IFERROR(O452/N452*100, "")</f>
+      <c r="P452" s="90" t="str">
+        <f t="shared" ref="P452:P515" si="38">IFERROR(O452/N452, "")</f>
         <v/>
       </c>
       <c r="Q452" s="65" t="str">
@@ -20755,7 +20774,7 @@
         <v/>
       </c>
       <c r="R452" s="65" t="str">
-        <f t="shared" ref="R452:R515" si="39">IFERROR(N452/G452, "")</f>
+        <f t="shared" ref="R452:R515" si="39">IFERROR(N452/F452, "")</f>
         <v/>
       </c>
       <c r="S452" s="83"/>
@@ -20787,7 +20806,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P453" s="65" t="str">
+      <c r="P453" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -20828,7 +20847,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P454" s="65" t="str">
+      <c r="P454" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -20869,7 +20888,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P455" s="65" t="str">
+      <c r="P455" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -20910,7 +20929,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P456" s="65" t="str">
+      <c r="P456" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -20951,7 +20970,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P457" s="65" t="str">
+      <c r="P457" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -20992,7 +21011,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P458" s="65" t="str">
+      <c r="P458" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21033,7 +21052,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P459" s="65" t="str">
+      <c r="P459" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21074,7 +21093,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P460" s="65" t="str">
+      <c r="P460" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21115,7 +21134,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P461" s="65" t="str">
+      <c r="P461" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21156,7 +21175,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P462" s="65" t="str">
+      <c r="P462" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21197,7 +21216,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P463" s="65" t="str">
+      <c r="P463" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21238,7 +21257,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P464" s="65" t="str">
+      <c r="P464" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21279,7 +21298,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P465" s="65" t="str">
+      <c r="P465" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21320,7 +21339,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P466" s="65" t="str">
+      <c r="P466" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21361,7 +21380,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P467" s="65" t="str">
+      <c r="P467" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21402,7 +21421,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P468" s="65" t="str">
+      <c r="P468" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21443,7 +21462,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P469" s="65" t="str">
+      <c r="P469" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21484,7 +21503,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P470" s="65" t="str">
+      <c r="P470" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21525,7 +21544,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P471" s="65" t="str">
+      <c r="P471" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21566,7 +21585,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P472" s="65" t="str">
+      <c r="P472" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21607,7 +21626,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P473" s="65" t="str">
+      <c r="P473" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21648,7 +21667,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P474" s="65" t="str">
+      <c r="P474" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21689,7 +21708,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P475" s="65" t="str">
+      <c r="P475" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21730,7 +21749,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P476" s="65" t="str">
+      <c r="P476" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21771,7 +21790,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P477" s="65" t="str">
+      <c r="P477" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21812,7 +21831,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P478" s="65" t="str">
+      <c r="P478" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21853,7 +21872,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P479" s="65" t="str">
+      <c r="P479" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21894,7 +21913,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P480" s="65" t="str">
+      <c r="P480" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21935,7 +21954,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P481" s="65" t="str">
+      <c r="P481" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -21976,7 +21995,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P482" s="65" t="str">
+      <c r="P482" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22017,7 +22036,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P483" s="65" t="str">
+      <c r="P483" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22058,7 +22077,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P484" s="65" t="str">
+      <c r="P484" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22099,7 +22118,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P485" s="65" t="str">
+      <c r="P485" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22140,7 +22159,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P486" s="65" t="str">
+      <c r="P486" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22181,7 +22200,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P487" s="65" t="str">
+      <c r="P487" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22222,7 +22241,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P488" s="65" t="str">
+      <c r="P488" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22263,7 +22282,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P489" s="65" t="str">
+      <c r="P489" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22304,7 +22323,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P490" s="65" t="str">
+      <c r="P490" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22345,7 +22364,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P491" s="65" t="str">
+      <c r="P491" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22386,7 +22405,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P492" s="65" t="str">
+      <c r="P492" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22427,7 +22446,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P493" s="65" t="str">
+      <c r="P493" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22468,7 +22487,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P494" s="65" t="str">
+      <c r="P494" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22509,7 +22528,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P495" s="65" t="str">
+      <c r="P495" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22550,7 +22569,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P496" s="65" t="str">
+      <c r="P496" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22591,7 +22610,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P497" s="65" t="str">
+      <c r="P497" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22632,7 +22651,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P498" s="65" t="str">
+      <c r="P498" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22673,7 +22692,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P499" s="65" t="str">
+      <c r="P499" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22714,7 +22733,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P500" s="65" t="str">
+      <c r="P500" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22755,7 +22774,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P501" s="65" t="str">
+      <c r="P501" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22796,7 +22815,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P502" s="65" t="str">
+      <c r="P502" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22837,7 +22856,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P503" s="65" t="str">
+      <c r="P503" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22878,7 +22897,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P504" s="65" t="str">
+      <c r="P504" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22919,7 +22938,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P505" s="65" t="str">
+      <c r="P505" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -22960,7 +22979,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P506" s="65" t="str">
+      <c r="P506" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -23001,7 +23020,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P507" s="65" t="str">
+      <c r="P507" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -23042,7 +23061,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P508" s="65" t="str">
+      <c r="P508" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -23083,7 +23102,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P509" s="65" t="str">
+      <c r="P509" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -23124,7 +23143,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P510" s="65" t="str">
+      <c r="P510" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -23165,7 +23184,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P511" s="65" t="str">
+      <c r="P511" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -23206,7 +23225,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P512" s="65" t="str">
+      <c r="P512" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -23247,7 +23266,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P513" s="65" t="str">
+      <c r="P513" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -23288,7 +23307,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P514" s="65" t="str">
+      <c r="P514" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -23329,7 +23348,7 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P515" s="65" t="str">
+      <c r="P515" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -23370,8 +23389,8 @@
         <f t="shared" ref="O516:O579" si="42">IFERROR(STDEV(J516:L516), "")</f>
         <v/>
       </c>
-      <c r="P516" s="65" t="str">
-        <f t="shared" ref="P516:P579" si="43">IFERROR(O516/N516*100, "")</f>
+      <c r="P516" s="90" t="str">
+        <f t="shared" ref="P516:P579" si="43">IFERROR(O516/N516, "")</f>
         <v/>
       </c>
       <c r="Q516" s="65" t="str">
@@ -23379,7 +23398,7 @@
         <v/>
       </c>
       <c r="R516" s="65" t="str">
-        <f t="shared" ref="R516:R579" si="44">IFERROR(N516/G516, "")</f>
+        <f t="shared" ref="R516:R579" si="44">IFERROR(N516/F516, "")</f>
         <v/>
       </c>
       <c r="S516" s="83"/>
@@ -23411,7 +23430,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P517" s="65" t="str">
+      <c r="P517" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -23452,7 +23471,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P518" s="65" t="str">
+      <c r="P518" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -23493,7 +23512,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P519" s="65" t="str">
+      <c r="P519" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -23534,7 +23553,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P520" s="65" t="str">
+      <c r="P520" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -23575,7 +23594,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P521" s="65" t="str">
+      <c r="P521" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -23616,7 +23635,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P522" s="65" t="str">
+      <c r="P522" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -23657,7 +23676,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P523" s="65" t="str">
+      <c r="P523" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -23698,7 +23717,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P524" s="65" t="str">
+      <c r="P524" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -23739,7 +23758,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P525" s="65" t="str">
+      <c r="P525" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -23780,7 +23799,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P526" s="65" t="str">
+      <c r="P526" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -23821,7 +23840,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P527" s="65" t="str">
+      <c r="P527" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -23862,7 +23881,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P528" s="65" t="str">
+      <c r="P528" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -23903,7 +23922,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P529" s="65" t="str">
+      <c r="P529" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -23944,7 +23963,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P530" s="65" t="str">
+      <c r="P530" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -23985,7 +24004,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P531" s="65" t="str">
+      <c r="P531" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24026,7 +24045,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P532" s="65" t="str">
+      <c r="P532" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24067,7 +24086,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P533" s="65" t="str">
+      <c r="P533" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24108,7 +24127,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P534" s="65" t="str">
+      <c r="P534" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24149,7 +24168,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P535" s="65" t="str">
+      <c r="P535" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24190,7 +24209,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P536" s="65" t="str">
+      <c r="P536" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24231,7 +24250,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P537" s="65" t="str">
+      <c r="P537" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24272,7 +24291,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P538" s="65" t="str">
+      <c r="P538" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24313,7 +24332,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P539" s="65" t="str">
+      <c r="P539" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24354,7 +24373,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P540" s="65" t="str">
+      <c r="P540" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24395,7 +24414,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P541" s="65" t="str">
+      <c r="P541" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24436,7 +24455,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P542" s="65" t="str">
+      <c r="P542" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24477,7 +24496,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P543" s="65" t="str">
+      <c r="P543" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24518,7 +24537,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P544" s="65" t="str">
+      <c r="P544" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24559,7 +24578,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P545" s="65" t="str">
+      <c r="P545" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24600,7 +24619,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P546" s="65" t="str">
+      <c r="P546" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24641,7 +24660,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P547" s="65" t="str">
+      <c r="P547" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24682,7 +24701,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P548" s="65" t="str">
+      <c r="P548" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24723,7 +24742,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P549" s="65" t="str">
+      <c r="P549" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24764,7 +24783,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P550" s="65" t="str">
+      <c r="P550" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24805,7 +24824,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P551" s="65" t="str">
+      <c r="P551" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24846,7 +24865,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P552" s="65" t="str">
+      <c r="P552" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24887,7 +24906,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P553" s="65" t="str">
+      <c r="P553" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24928,7 +24947,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P554" s="65" t="str">
+      <c r="P554" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -24969,7 +24988,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P555" s="65" t="str">
+      <c r="P555" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25010,7 +25029,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P556" s="65" t="str">
+      <c r="P556" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25051,7 +25070,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P557" s="65" t="str">
+      <c r="P557" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25092,7 +25111,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P558" s="65" t="str">
+      <c r="P558" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25133,7 +25152,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P559" s="65" t="str">
+      <c r="P559" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25174,7 +25193,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P560" s="65" t="str">
+      <c r="P560" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25215,7 +25234,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P561" s="65" t="str">
+      <c r="P561" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25256,7 +25275,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P562" s="65" t="str">
+      <c r="P562" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25297,7 +25316,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P563" s="65" t="str">
+      <c r="P563" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25338,7 +25357,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P564" s="65" t="str">
+      <c r="P564" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25379,7 +25398,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P565" s="65" t="str">
+      <c r="P565" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25420,7 +25439,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P566" s="65" t="str">
+      <c r="P566" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25461,7 +25480,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P567" s="65" t="str">
+      <c r="P567" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25502,7 +25521,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P568" s="65" t="str">
+      <c r="P568" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25543,7 +25562,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P569" s="65" t="str">
+      <c r="P569" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25584,7 +25603,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P570" s="65" t="str">
+      <c r="P570" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25625,7 +25644,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P571" s="65" t="str">
+      <c r="P571" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25666,7 +25685,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P572" s="65" t="str">
+      <c r="P572" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25707,7 +25726,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P573" s="65" t="str">
+      <c r="P573" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25748,7 +25767,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P574" s="65" t="str">
+      <c r="P574" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25789,7 +25808,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P575" s="65" t="str">
+      <c r="P575" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25830,7 +25849,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P576" s="65" t="str">
+      <c r="P576" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25871,7 +25890,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P577" s="65" t="str">
+      <c r="P577" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25912,7 +25931,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P578" s="65" t="str">
+      <c r="P578" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25953,7 +25972,7 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="P579" s="65" t="str">
+      <c r="P579" s="90" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -25994,8 +26013,8 @@
         <f t="shared" ref="O580:O600" si="47">IFERROR(STDEV(J580:L580), "")</f>
         <v/>
       </c>
-      <c r="P580" s="65" t="str">
-        <f t="shared" ref="P580:P600" si="48">IFERROR(O580/N580*100, "")</f>
+      <c r="P580" s="90" t="str">
+        <f t="shared" ref="P580:P600" si="48">IFERROR(O580/N580, "")</f>
         <v/>
       </c>
       <c r="Q580" s="65" t="str">
@@ -26003,7 +26022,7 @@
         <v/>
       </c>
       <c r="R580" s="65" t="str">
-        <f t="shared" ref="R580:R600" si="49">IFERROR(N580/G580, "")</f>
+        <f t="shared" ref="R580:R600" si="49">IFERROR(N580/F580, "")</f>
         <v/>
       </c>
       <c r="S580" s="83"/>
@@ -26035,7 +26054,7 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P581" s="65" t="str">
+      <c r="P581" s="90" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -26076,7 +26095,7 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P582" s="65" t="str">
+      <c r="P582" s="90" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -26117,7 +26136,7 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P583" s="65" t="str">
+      <c r="P583" s="90" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -26158,7 +26177,7 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P584" s="65" t="str">
+      <c r="P584" s="90" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -26199,7 +26218,7 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P585" s="65" t="str">
+      <c r="P585" s="90" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -26240,7 +26259,7 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P586" s="65" t="str">
+      <c r="P586" s="90" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -26281,7 +26300,7 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P587" s="65" t="str">
+      <c r="P587" s="90" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -26322,7 +26341,7 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P588" s="65" t="str">
+      <c r="P588" s="90" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -26363,7 +26382,7 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P589" s="65" t="str">
+      <c r="P589" s="90" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -26404,7 +26423,7 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P590" s="65" t="str">
+      <c r="P590" s="90" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -26445,7 +26464,7 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P591" s="65" t="str">
+      <c r="P591" s="90" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -26486,7 +26505,7 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P592" s="65" t="str">
+      <c r="P592" s="90" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -26527,7 +26546,7 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P593" s="65" t="str">
+      <c r="P593" s="90" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -26568,7 +26587,7 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P594" s="65" t="str">
+      <c r="P594" s="90" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -26609,7 +26628,7 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P595" s="65" t="str">
+      <c r="P595" s="90" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -26650,7 +26669,7 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P596" s="65" t="str">
+      <c r="P596" s="90" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -26691,7 +26710,7 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P597" s="65" t="str">
+      <c r="P597" s="90" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -26732,7 +26751,7 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P598" s="65" t="str">
+      <c r="P598" s="90" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -26773,7 +26792,7 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P599" s="65" t="str">
+      <c r="P599" s="90" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -26814,7 +26833,7 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P600" s="65" t="str">
+      <c r="P600" s="90" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -26837,7 +26856,7 @@
       <c r="M1048576" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EcvY8+uafrMJlZd0mn81UC9iyadd36vW//tHteEp0Jt532RrNjcrrk9/EY/Rriy+n9PbWRULAR/BFPagxzeMfA==" saltValue="ErdUvWxRaAGHRyq+5iTMuA==" spinCount="100000" sheet="1" formatColumns="0" sort="0" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2d6PojIeTWPcPzQURR9NCqoEcjWU/QLbzXftwUFcMbwOTEMm5yVuUgtBogriVayy+lqyhMKZOicUH3LgT0+A0Q==" saltValue="r57jzqFhxENpekdQmNEgdw==" spinCount="100000" sheet="1" formatColumns="0" insertColumns="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A1:U1" xr:uid="{6D791068-BFCE-264E-B109-E1142F7F28F6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
